--- a/Descripción audios.xlsx
+++ b/Descripción audios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Laurita\8-9 Semestre\Diplomado IA y AP\Proyecto Sarcasmo\Audios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIETH LOPEZ\Documents\Diplomado_IA_AP\Clasificador_sarcasmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10142C4-8EFE-46DC-B34D-35A554E0D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB4002-7F10-4A9C-AFC1-B2B46C6E1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F465D103-FEC2-4BB9-9909-6AF23551EAA1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="131">
   <si>
     <t>Audio</t>
   </si>
@@ -376,13 +376,64 @@
   </si>
   <si>
     <t>Audio_110</t>
+  </si>
+  <si>
+    <t>Audio_111</t>
+  </si>
+  <si>
+    <t>Audio_112</t>
+  </si>
+  <si>
+    <t>Audio_113</t>
+  </si>
+  <si>
+    <t>Audio_114</t>
+  </si>
+  <si>
+    <t>Audio_115</t>
+  </si>
+  <si>
+    <t>Audio_116</t>
+  </si>
+  <si>
+    <t>Audio_117</t>
+  </si>
+  <si>
+    <t>Audio_118</t>
+  </si>
+  <si>
+    <t>Audio_119</t>
+  </si>
+  <si>
+    <t>Audio_120</t>
+  </si>
+  <si>
+    <t>Audio_121</t>
+  </si>
+  <si>
+    <t>Audio_122</t>
+  </si>
+  <si>
+    <t>Audio_123</t>
+  </si>
+  <si>
+    <t>Audio_124</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,13 +449,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -419,9 +488,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,47 +806,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248C9E9-FCCA-4238-BD15-60AB07B22EBD}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>COUNTIF(B:B,D2)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <f>COUNTIF(B:B,D3)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SUM(E2:E3)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -784,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -792,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -800,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -808,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -816,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -824,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -832,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -840,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -848,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -856,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -864,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1632,7 +1729,120 @@
         <v>2</v>
       </c>
     </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
